--- a/DataWarehouse/tunisian_data/excel/Client.xlsx
+++ b/DataWarehouse/tunisian_data/excel/Client.xlsx
@@ -481,34 +481,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gosselin</t>
+          <t>Pineau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brigitte</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>412e961e-6128-4219-a07d-859b66dee3ec</t>
+          <t>ba69f847-cb37-48fc-b8f5-15567163f430</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>2752</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="3">
@@ -517,34 +517,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lefebvre</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Benoît</t>
+          <t>Lucie</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5963234e-66d3-4fb6-a67b-eb9835b54b80</t>
+          <t>284a835a-da4d-4c63-9bf5-ae0762228e55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>11594</v>
+        <v>19264</v>
       </c>
     </row>
     <row r="4">
@@ -553,17 +553,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weiss</t>
+          <t>Munoz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alix</t>
+          <t>Sébastien</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4a3cf45a-9644-4147-868f-4f1e6d55f32c</t>
+          <t>dfc69c04-14cc-4fde-a02f-4b6363152ca4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>9789</v>
+        <v>11159</v>
       </c>
     </row>
     <row r="5">
@@ -589,22 +589,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Roche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Émilie</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>e7ce80a7-bc3c-434a-a11f-647f5df4e429</t>
+          <t>905c1aa9-7e3d-4aa9-ac94-36f1f4f8d343</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>8797</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="6">
@@ -625,22 +625,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lamy</t>
+          <t>Étienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Geneviève</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ef33ae0b-e1c8-4231-a745-0eaaad059adc</t>
+          <t>a36ee5e2-7bbd-463f-bc26-6f3066944921</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
-        <v>2558</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Da Costa</t>
+          <t>Royer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Luc</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>e7aca452-c2e1-4b93-a018-f74e237fb604</t>
+          <t>56996790-9ab9-47aa-b839-e5e604272aac</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>6391</v>
+        <v>9446</v>
       </c>
     </row>
     <row r="8">
@@ -697,22 +697,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pascal</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Antoinette</t>
+          <t>Élodie</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13a2712e-14fa-4dce-ac0f-bedc667eac4d</t>
+          <t>96ac6af7-f540-44e5-9f21-bb92aed9417e</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>18534</v>
+        <v>15618</v>
       </c>
     </row>
     <row r="9">
@@ -733,34 +733,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sauvage</t>
+          <t>Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Édith</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cfc7dca7-9380-4f1c-9ca7-91bd72fb3643</t>
+          <t>88561150-3e11-409c-945e-c793bae5f496</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H9" t="n">
-        <v>13430</v>
+        <v>14978</v>
       </c>
     </row>
     <row r="10">
@@ -769,34 +769,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Boyer</t>
+          <t>Barbe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marcel</t>
+          <t>Grégoire</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ff7a5b2c-ae59-4967-a5c5-e7c912907822</t>
+          <t>20553c4a-57a8-4e8f-97f8-643a52dba2a1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
-        <v>10028</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="11">
@@ -805,17 +805,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Philippe</t>
+          <t>Gilbert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alix</t>
+          <t>Aurore</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>37d5add0-4c0c-4dfa-a7c3-7ce0866778bb</t>
+          <t>ef049aeb-f894-463c-8dff-ec8cdd920fd1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -825,14 +825,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H11" t="n">
-        <v>10132</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="12">
@@ -841,34 +841,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hervé</t>
+          <t>Leroux</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Timothée</t>
+          <t>Virginie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cfbc99d7-27e4-4c27-9ffd-c49cd314fa53</t>
+          <t>ed286241-a57d-4021-96b5-5dedadc147e7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H12" t="n">
-        <v>5626</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="13">
@@ -877,34 +877,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Morel</t>
+          <t>Rodrigues</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eugène</t>
+          <t>Alexandrie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52838bdf-ece6-4839-9976-faba2439fdc6</t>
+          <t>031bf17e-3bc6-47e1-a761-dabdcc4f9d73</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Bizerte</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>15068</v>
+        <v>13410</v>
       </c>
     </row>
     <row r="14">
@@ -913,34 +913,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Breton</t>
+          <t>Dos Santos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82766848-ef54-4f55-87a3-010feda558b6</t>
+          <t>71817a39-62e0-46a7-b547-a8b2a4f2d955</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H14" t="n">
-        <v>14351</v>
+        <v>10146</v>
       </c>
     </row>
     <row r="15">
@@ -949,34 +949,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Corinne</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94d7de18-a80e-415d-b118-43e4760f45d1</t>
+          <t>be8d9e90-5d12-4431-a5e7-90c93303c59c</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
-        <v>15736</v>
+        <v>14756</v>
       </c>
     </row>
     <row r="16">
@@ -985,34 +985,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Labbé</t>
+          <t>Delorme</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thibault</t>
+          <t>Emmanuelle</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>d5410f42-35bf-4d59-82cc-31212bea4273</t>
+          <t>bcaaa5dd-dd5f-43cd-bb5e-dc4c54e1a8f6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Bizerte</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H16" t="n">
-        <v>3461</v>
+        <v>19846</v>
       </c>
     </row>
     <row r="17">
@@ -1021,34 +1021,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Grégoire</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Mathilde</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>131961f4-d268-4d03-bb04-3bf87fac2f5a</t>
+          <t>0981d106-05f0-4c59-bb78-73bb59bf6a08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H17" t="n">
-        <v>7637</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="18">
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Briand</t>
+          <t>Mahe</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chantal</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>39247104-313c-47cd-a5c0-8b35295b83fa</t>
+          <t>dfa83b57-d720-498e-9719-760b30332a90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1077,14 +1077,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>13004</v>
+        <v>15356</v>
       </c>
     </row>
     <row r="19">
@@ -1093,34 +1093,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Laurence</t>
+          <t>Antoinette</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7f263b48-fe9c-4fcd-bb62-a3b74ad3979e</t>
+          <t>791e8380-4f93-4962-b321-bf153c9dc9ce</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H19" t="n">
-        <v>2394</v>
+        <v>10256</v>
       </c>
     </row>
     <row r="20">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vasseur</t>
+          <t>Dupuis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>c31d04d0-ab39-4bec-a4c9-f48393b546b4</t>
+          <t>55d56dad-abc6-4102-968d-94fa29edaff0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>4776</v>
+        <v>13177</v>
       </c>
     </row>
     <row r="21">
@@ -1165,22 +1165,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Regnier</t>
+          <t>Bouvier</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Aimée</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9439fc69-9803-493f-8664-7de29638bbb2</t>
+          <t>4bc12577-aa63-4047-ab3a-17b3c47763d8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H21" t="n">
-        <v>2424</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="22">
@@ -1201,22 +1201,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rivière</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Frédérique</t>
+          <t>Pénélope</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>f8c72227-12f1-4aca-8385-ed824605c84a</t>
+          <t>19c972d3-d7fe-4d4f-b086-7796a9c4feb8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H22" t="n">
-        <v>11731</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="23">
@@ -1237,34 +1237,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pichon</t>
+          <t>Muller</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hélène</t>
+          <t>Virginie</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4d8288ca-33ac-46db-b3ec-a8da87fc1f3f</t>
+          <t>660a37f8-633b-47b0-a523-4db7eb62718b</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>12800</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="24">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>François</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lorraine</t>
+          <t>Thierry</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ddf67d30-2ff4-43fe-b9f5-92929aacd362</t>
+          <t>1ca30267-fd0f-437c-8904-c508f1cefae3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H24" t="n">
-        <v>19062</v>
+        <v>16125</v>
       </c>
     </row>
     <row r="25">
@@ -1309,34 +1309,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aimé</t>
+          <t>Célina</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>90980ec6-c6a3-408c-b4d6-a9f327f3dd2f</t>
+          <t>9a70c997-308c-4c23-9187-4b6057554cee</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H25" t="n">
-        <v>15139</v>
+        <v>12648</v>
       </c>
     </row>
     <row r="26">
@@ -1345,22 +1345,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maury</t>
+          <t>Allain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Constance</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19adcbc0-255d-4af6-939a-5fa652d21904</t>
+          <t>a5192ef9-b2a0-4d36-9a2d-c13b5040b47b</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H26" t="n">
-        <v>18497</v>
+        <v>13147</v>
       </c>
     </row>
     <row r="27">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wagner</t>
+          <t>Dumas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Maryse</t>
+          <t>Louise</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>365b1edf-dcb0-47b3-8f92-7fda4655bed7</t>
+          <t>349e549a-4518-4b86-a005-a7a562c4d2c7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H27" t="n">
-        <v>9754</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="28">
@@ -1417,22 +1417,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Lévêque</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lorraine</t>
+          <t>Victoire</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>997f36cd-1f00-48bd-aa47-7ea91b203c9f</t>
+          <t>4710882f-4058-4547-8267-9ba976cdf42d</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>15016</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="29">
@@ -1453,22 +1453,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Thierry</t>
+          <t>Navarro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Célina</t>
+          <t>Xavier</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1e89c24d-b17d-451b-8ef2-1f9ca9a7eb57</t>
+          <t>67352631-bda0-4744-a6ad-adb943d9a154</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H29" t="n">
-        <v>3328</v>
+        <v>13494</v>
       </c>
     </row>
     <row r="30">
@@ -1489,34 +1489,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Reynaud</t>
+          <t>Jacquet</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>f719abb3-4eb2-4d5b-8b49-500cbc05fa4a</t>
+          <t>b110ce89-a043-41b6-83e3-24d4ef241ac5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H30" t="n">
-        <v>2558</v>
+        <v>15178</v>
       </c>
     </row>
     <row r="31">
@@ -1525,34 +1525,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Petit</t>
+          <t>Samson</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92924822-4bea-46f7-921f-498e9c31e242</t>
+          <t>df83b3e1-a477-420b-9b25-17d85f0e9a28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>17534</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="32">
@@ -1561,34 +1561,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Godard</t>
+          <t>Schmitt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>Véronique</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2073e24b-d4f9-4a4a-971c-7d72073abc96</t>
+          <t>5048c3af-d243-4749-b8ed-5e6ed9a99670</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H32" t="n">
-        <v>7423</v>
+        <v>16248</v>
       </c>
     </row>
     <row r="33">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lebreton</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Anaïs</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ec0f8855-ef7a-4fdf-839d-59844efe3039</t>
+          <t>0b0f6692-ba0c-4a9c-8faa-09a0237c8593</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1617,14 +1617,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H33" t="n">
-        <v>9768</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="34">
@@ -1633,34 +1633,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dumas</t>
+          <t>Seguin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>b9e2856d-dd80-4497-baa7-f4cf8add73bc</t>
+          <t>74b67922-754b-44f2-9ed2-c59a0dc07594</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H34" t="n">
-        <v>15933</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="35">
@@ -1669,34 +1669,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Humbert</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Marthe</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16ed9039-a846-426e-bc10-ffad090ce7e3</t>
+          <t>19237281-ce3f-4b25-9af1-e2462184d3a1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H35" t="n">
-        <v>4105</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="36">
@@ -1705,22 +1705,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Morvan</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>705d2122-64de-4d74-9812-51638d2f314e</t>
+          <t>73ed1a4c-4095-479b-aeac-01121177afeb</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H36" t="n">
-        <v>10200</v>
+        <v>14683</v>
       </c>
     </row>
     <row r="37">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bertin</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lucie</t>
+          <t>Zoé</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>35ee351c-366a-49c9-81ac-16933e571124</t>
+          <t>f0e87b10-2f45-4d9b-8457-eef7516d3113</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H37" t="n">
-        <v>3372</v>
+        <v>16136</v>
       </c>
     </row>
     <row r="38">
@@ -1777,34 +1777,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Boyer</t>
+          <t>Hoarau</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Capucine</t>
+          <t>Philippe</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>40618dc0-1555-4a2a-880f-2ca499599b0e</t>
+          <t>5026ea5a-c170-40a1-b808-387f10c8e041</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H38" t="n">
-        <v>17899</v>
+        <v>16595</v>
       </c>
     </row>
     <row r="39">
@@ -1813,34 +1813,34 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Coste</t>
+          <t>Tessier</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Michel</t>
+          <t>Véronique</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>520609a8-1e35-420c-9295-6f5b0fc39651</t>
+          <t>941597fe-2a02-4478-bfa2-1e2073d22a50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H39" t="n">
-        <v>8500</v>
+        <v>10587</v>
       </c>
     </row>
     <row r="40">
@@ -1849,34 +1849,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Barbe</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Édouard</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>332b3e11-b148-40f8-ad18-b9faa14b786c</t>
+          <t>8acd4f81-e333-4766-ac4e-4232c8b15941</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Bizerte</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H40" t="n">
-        <v>14592</v>
+        <v>14396</v>
       </c>
     </row>
     <row r="41">
@@ -1885,34 +1885,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bailly</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Capucine</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0903a39b-c7e6-42e6-8941-7704a568a227</t>
+          <t>fa5aec3c-b653-4ee2-af3f-8c2ac3c3cb71</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H41" t="n">
-        <v>12571</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="42">
@@ -1921,22 +1921,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bègue</t>
+          <t>Leduc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Élodie</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23f14d6e-dc66-4913-a876-883c70076c63</t>
+          <t>c32bdcd0-e011-466c-bdab-807d9457fc51</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H42" t="n">
-        <v>17377</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="43">
@@ -1957,22 +1957,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Allard</t>
+          <t>Le Gall</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gabrielle</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>c7b7877c-3b10-4a4c-8d61-a64b4e614f65</t>
+          <t>f6da1234-9d26-479d-8d06-6de4f8ab40df</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1981,10 +1981,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H43" t="n">
-        <v>15621</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="44">
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vallée</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1a122fe7-0ef6-4714-ba30-5a23334fc8fd</t>
+          <t>e2ede115-793f-4381-adf8-1ec5e232bfa7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H44" t="n">
-        <v>11317</v>
+        <v>16160</v>
       </c>
     </row>
     <row r="45">
@@ -2029,22 +2029,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bousquet</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>fc15aa80-1984-40ec-83c6-2fe30c136c5b</t>
+          <t>7636787a-24be-46be-83bc-40f85d6bac72</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>19863</v>
+        <v>18711</v>
       </c>
     </row>
     <row r="46">
@@ -2065,34 +2065,34 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Buisson</t>
+          <t>Cordier</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Virginie</t>
+          <t>Clémence</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>da66ba71-b966-45d8-8daf-8872b5458965</t>
+          <t>6991b242-6109-4dcb-9abc-62f3ba1f4d9f</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H46" t="n">
-        <v>14193</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="47">
@@ -2101,22 +2101,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lebrun</t>
+          <t>Buisson</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Émile</t>
+          <t>Philippine</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>687a6487-312b-4f4f-a939-3c3aeee32177</t>
+          <t>960cd034-2ea4-403f-afa8-fd1a20ccc802</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H47" t="n">
-        <v>9909</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="48">
@@ -2137,34 +2137,34 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Masson</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hortense</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5e4cea66-c012-4ade-a40d-cbcd4cfb438a</t>
+          <t>e22e33c8-148c-41e5-9847-4b9c0dc928e9</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H48" t="n">
-        <v>16588</v>
+        <v>11992</v>
       </c>
     </row>
     <row r="49">
@@ -2173,34 +2173,34 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Duval</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>73143d82-028a-41aa-a070-5473b95dd633</t>
+          <t>4f8ec6d0-7103-400b-a9a8-511680b38496</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H49" t="n">
-        <v>10560</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="50">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Marie</t>
+          <t>Blin</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Alix</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8529fef8-e475-4dfc-b8f9-843ac74f3ff5</t>
+          <t>9d5bee29-430c-4cb4-85e5-b1b80b34ae47</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H50" t="n">
-        <v>10850</v>
+        <v>17399</v>
       </c>
     </row>
     <row r="51">
@@ -2245,34 +2245,34 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dumas</t>
+          <t>Collet</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Monique</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>dea7396c-2d41-4355-b771-efc13cf751b3</t>
+          <t>ae737948-db26-48e3-853f-20995cb0cea3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H51" t="n">
-        <v>17885</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="52">
@@ -2281,34 +2281,34 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18bd6133-33ff-4724-8cf5-179df67fc4ca</t>
+          <t>38316b55-c91c-43ce-99d2-e7576551adc4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H52" t="n">
-        <v>11474</v>
+        <v>15798</v>
       </c>
     </row>
     <row r="53">
@@ -2317,34 +2317,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Roche</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Michèle</t>
+          <t>François</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>69552a72-03ef-4183-9570-9f1391141c7d</t>
+          <t>f9c6a8c8-dc1b-4cc8-8515-ec8ab10e61b6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H53" t="n">
-        <v>2083</v>
+        <v>16996</v>
       </c>
     </row>
     <row r="54">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Lemoine</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Capucine</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7457a277-d509-49d3-b1f7-3e50f855afe1</t>
+          <t>7e3b9e4d-bfb9-48ab-b591-9d29883ec06d</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H54" t="n">
-        <v>10632</v>
+        <v>14029</v>
       </c>
     </row>
     <row r="55">
@@ -2389,17 +2389,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Guichard</t>
+          <t>Lévêque</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Adrienne</t>
+          <t>Margaret</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8eef2a89-f640-4d50-b824-eb493ee6d8be</t>
+          <t>87dae455-e8ea-480e-8822-a50c3f602955</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2409,14 +2409,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H55" t="n">
-        <v>3587</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="56">
@@ -2425,34 +2425,34 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>Wagner</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Marcelle</t>
+          <t>Grégoire</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>768b253e-416b-4a9f-bc92-a8aa93734fb0</t>
+          <t>dfbd8b40-dd23-430a-940c-d11730c85e4d</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H56" t="n">
-        <v>7780</v>
+        <v>16157</v>
       </c>
     </row>
     <row r="57">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Seguin</t>
+          <t>Reynaud</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Bernadette</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4b291271-065c-4614-8439-5b480d34799d</t>
+          <t>f9cbe242-7178-4cb0-b89c-5f86e824e619</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H57" t="n">
-        <v>10832</v>
+        <v>18910</v>
       </c>
     </row>
     <row r="58">
@@ -2497,17 +2497,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Théophile</t>
+          <t>Étienne</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8c076d42-f48f-40ce-9301-1facd98c5c63</t>
+          <t>ad88b8b9-0f78-45ad-aed8-c11806f10f6c</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2517,14 +2517,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H58" t="n">
-        <v>12225</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="59">
@@ -2533,34 +2533,34 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dijoux</t>
+          <t>Rossi</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Alfred</t>
+          <t>Anastasie</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2626d4b7-1e3d-40a0-abb9-eab24fb1de38</t>
+          <t>ba828a23-ebcd-4183-8b27-6844b790a9d7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H59" t="n">
-        <v>18839</v>
+        <v>14553</v>
       </c>
     </row>
     <row r="60">
@@ -2569,17 +2569,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Reynaud</t>
+          <t>Dupont</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Clémence</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>05e88e04-03d7-4136-904e-36343698b534</t>
+          <t>284bce9b-7808-487b-a9e7-15ab41334d09</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2589,14 +2589,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H60" t="n">
-        <v>12759</v>
+        <v>12697</v>
       </c>
     </row>
     <row r="61">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Ferrand</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Célina</t>
+          <t>Colette</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0ba11b60-ba44-47cd-a6dc-910883989ea8</t>
+          <t>2095844f-3dc0-49d7-a506-fd74e1ca9aee</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H61" t="n">
-        <v>9658</v>
+        <v>18995</v>
       </c>
     </row>
     <row r="62">
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Meunier</t>
+          <t>Blondel</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rémy</t>
+          <t>Anaïs</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>c0d5df15-972f-4351-9803-108490033ee0</t>
+          <t>503df8a8-a50f-446e-9007-a35d26e8d840</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2661,14 +2661,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H62" t="n">
-        <v>4883</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="63">
@@ -2677,34 +2677,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rocher</t>
+          <t>François</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Zacharie</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>b1de6419-a294-4e3f-926c-d3d9e2f5bb58</t>
+          <t>a98b2b46-712e-47b1-bbef-2e0f441e609c</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Bizerte</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H63" t="n">
-        <v>5530</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="64">
@@ -2713,22 +2713,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Langlois</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dominique</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0221088c-80fa-48f8-990e-a2327bc30b50</t>
+          <t>7a4d8bd9-521e-42f1-9c3c-8e6149999e61</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H64" t="n">
-        <v>16475</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="65">
@@ -2749,22 +2749,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Devaux</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Élisabeth</t>
+          <t>Gilbert</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0f92425c-8009-4795-b525-848abb020f53</t>
+          <t>3f2d48ef-b0cd-44f0-b496-40c754bb8f98</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H65" t="n">
-        <v>5754</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="66">
@@ -2785,22 +2785,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chevallier</t>
+          <t>Delattre</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Anaïs</t>
+          <t>Astrid</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>c6bc92e1-666c-4386-8b7f-e9cf853c3f9e</t>
+          <t>fa324bbf-d8bc-4162-82ab-8574ec6c58aa</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>16169</v>
+        <v>16492</v>
       </c>
     </row>
     <row r="67">
@@ -2821,22 +2821,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Brunet</t>
+          <t>Allard</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Victoire</t>
+          <t>Valérie</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>efbf36fa-9aa5-4ae4-b71f-0bc0ba180c85</t>
+          <t>c401ff47-ff5f-4bd3-a071-13ad23953301</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H67" t="n">
-        <v>18958</v>
+        <v>15475</v>
       </c>
     </row>
     <row r="68">
@@ -2857,34 +2857,34 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Le Gall</t>
+          <t>Bailly</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Maggie</t>
+          <t>Étienne</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>fc9a9526-7c89-44e4-b363-1f2c18a99999</t>
+          <t>f3257196-3a40-4583-88ec-4c630e42b84b</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H68" t="n">
-        <v>10016</v>
+        <v>10536</v>
       </c>
     </row>
     <row r="69">
@@ -2893,17 +2893,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Millet</t>
+          <t>Blin</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Auguste</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>02953074-4e2f-4f0e-80e3-bd809fa66043</t>
+          <t>affa88c1-bca9-4a6a-8747-bcc62ec9874a</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2913,14 +2913,14 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H69" t="n">
-        <v>15509</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="70">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Courtois</t>
+          <t>Bruneau</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Zacharie</t>
+          <t>Juliette</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>f186c60d-74be-4e4c-8824-315d8d3963bd</t>
+          <t>7467c8ce-12d4-44ca-91ad-4e5e4e4023c6</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H70" t="n">
-        <v>6576</v>
+        <v>15814</v>
       </c>
     </row>
     <row r="71">
@@ -2965,22 +2965,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Besnard</t>
+          <t>Poirier</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Adrienne</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3a083c24-3811-4f69-ada1-c9a099d93e0d</t>
+          <t>0833dcb3-5486-47b0-a2be-5274fee3a6c6</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Bizerte</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="H71" t="n">
-        <v>11766</v>
+        <v>19355</v>
       </c>
     </row>
     <row r="72">
@@ -3001,22 +3001,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Peron</t>
+          <t>Marie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Madeleine</t>
+          <t>Alfred</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>bcc23334-77eb-4f5a-9928-8e965423e570</t>
+          <t>cafa80ec-89b5-4dbd-9fc3-b17a7e55b97f</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H72" t="n">
-        <v>19405</v>
+        <v>14614</v>
       </c>
     </row>
     <row r="73">
@@ -3037,22 +3037,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Marchal</t>
+          <t>Boucher</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Geneviève</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>22194a8e-cd9d-4b3d-8aac-39bc8c2f7f80</t>
+          <t>93f02edb-f3cf-44cb-8028-e2852b9a62f6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H73" t="n">
-        <v>12058</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="74">
@@ -3073,22 +3073,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Carre</t>
+          <t>Petitjean</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jérôme</t>
+          <t>Céline</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>cf62312a-23d7-4716-aab5-d6bb250c026a</t>
+          <t>7074d2a1-fa7b-490c-a124-24b5934261bf</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ben Arous</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H74" t="n">
-        <v>19549</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="75">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pons</t>
+          <t>Lebrun</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Aimée</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6a6ccc24-98ca-4b93-ba6d-795151a04f76</t>
+          <t>a23d2856-9c6f-435f-99ab-fe0e7448cd69</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H75" t="n">
-        <v>8263</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="76">
@@ -3150,29 +3150,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Célina</t>
+          <t>Éric</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5843f261-475c-4397-bc37-4eadb250e834</t>
+          <t>a768371f-3293-44d2-8e69-bd7c1e6744e6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H76" t="n">
-        <v>4211</v>
+        <v>9761</v>
       </c>
     </row>
     <row r="77">
@@ -3181,34 +3181,34 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Blanchard</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Franck</t>
+          <t>Lorraine</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>97e0f3b7-a68f-454c-80fd-4cbe6f658895</t>
+          <t>aeea9ef3-6919-4a1b-b6ba-a285d036cce7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H77" t="n">
-        <v>2720</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="78">
@@ -3217,34 +3217,34 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Wagner</t>
+          <t>Guillou</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Philippe</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>70f4b342-c58d-4eaf-b142-35bd45bf46af</t>
+          <t>629cce31-36c5-4625-b415-166b8a87d33a</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H78" t="n">
-        <v>19815</v>
+        <v>18188</v>
       </c>
     </row>
     <row r="79">
@@ -3253,22 +3253,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lefèvre</t>
+          <t>Blanc</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Chantal</t>
+          <t>Christelle</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0cc29d69-95b4-466b-a581-d0ecf7b89f88</t>
+          <t>1e0e58c5-320a-4640-b373-20cc46d66c0a</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3277,10 +3277,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>5756</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="80">
@@ -3289,17 +3289,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lemaire</t>
+          <t>Blanchard</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>65acc16a-3b33-42c3-bb6c-80617fb30504</t>
+          <t>62b80c42-d98d-43de-9440-4a3f615e2d50</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
-        <v>17562</v>
+        <v>14201</v>
       </c>
     </row>
     <row r="81">
@@ -3325,22 +3325,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Muller</t>
+          <t>Gérard</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Grégoire</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>68ef1cf2-2ee6-40ef-a341-bb947ed6c666</t>
+          <t>5c3e4486-446b-4590-aca1-d8b465b7daaf</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H81" t="n">
-        <v>17693</v>
+        <v>17849</v>
       </c>
     </row>
     <row r="82">
@@ -3361,34 +3361,34 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lacroix</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Océane</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4c74733a-ad7d-4b64-837d-5308ebcb4d59</t>
+          <t>9aa320a6-451b-4ea3-a3b5-6e7f00f79b17</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Bizerte</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H82" t="n">
-        <v>17841</v>
+        <v>11399</v>
       </c>
     </row>
     <row r="83">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rolland</t>
+          <t>Lecomte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Émilie</t>
+          <t>Dominique</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>b1f34eea-90f0-4999-97d4-131806ebdfe0</t>
+          <t>6bfac691-a720-4bef-bf8e-d49963298f83</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H83" t="n">
-        <v>9560</v>
+        <v>16545</v>
       </c>
     </row>
     <row r="84">
@@ -3433,34 +3433,34 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Weber</t>
+          <t>Dumont</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>e388b5d7-3bd3-43db-ba73-a988ab771697</t>
+          <t>e70a5e6f-af72-4b00-96fe-dc17de1faf09</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>19934</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="85">
@@ -3469,22 +3469,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Muller</t>
+          <t>Aubry</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Marie</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1a955a37-4084-41ff-93d6-f1c52ed6017d</t>
+          <t>15a3695e-5ffe-44f7-9da7-9b0c19dbb96f</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H85" t="n">
-        <v>18859</v>
+        <v>11576</v>
       </c>
     </row>
     <row r="86">
@@ -3505,34 +3505,34 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Guyot</t>
+          <t>Fournier</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>René</t>
+          <t>François</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>e5a55294-1da4-4f34-8257-254a919fb976</t>
+          <t>0e2c68ee-e0d8-40da-a662-62a59d489934</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H86" t="n">
-        <v>4864</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="87">
@@ -3541,34 +3541,34 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ferreira</t>
+          <t>Meunier</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Hugues</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8884f6b9-58f5-4275-9cfb-adb738931409</t>
+          <t>3d5728ab-a235-4917-a6ea-46d60dee10ec</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Gabès</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H87" t="n">
-        <v>4864</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="88">
@@ -3577,34 +3577,34 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Boutin</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Philippine</t>
+          <t>Rémy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5ae01d44-7ed4-41dd-b13b-0125b509e205</t>
+          <t>16f726b0-8650-4044-8172-c1a567d7474d</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H88" t="n">
-        <v>6111</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="89">
@@ -3613,17 +3613,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Courtois</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Laure</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>fb55c91a-0443-4687-b690-28a7c161cc91</t>
+          <t>a600a4c8-a60a-4379-a8ce-36e355791e33</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3633,14 +3633,14 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H89" t="n">
-        <v>7207</v>
+        <v>19330</v>
       </c>
     </row>
     <row r="90">
@@ -3649,17 +3649,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hervé</t>
+          <t>Reynaud</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Hortense</t>
+          <t>Agathe</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>e0c7090e-02ea-4404-a1dd-34357af10e14</t>
+          <t>8cce78b0-aad8-4f90-9a46-392d92805e7e</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3669,14 +3669,14 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H90" t="n">
-        <v>10886</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="91">
@@ -3685,22 +3685,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Noël</t>
+          <t>Gauthier</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lucie</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1365149f-e774-4847-85f5-82f7a6c76c89</t>
+          <t>c2871fb3-6f23-4d7b-91c6-89fa74815111</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sousse</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H91" t="n">
-        <v>18135</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="92">
@@ -3721,34 +3721,34 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Picard</t>
+          <t>Delattre</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>b486eb48-a010-4917-b30a-425cefad8b28</t>
+          <t>c874ddea-3198-427d-8efe-5a0c72d333c0</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H92" t="n">
-        <v>19387</v>
+        <v>14620</v>
       </c>
     </row>
     <row r="93">
@@ -3757,22 +3757,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bonnin</t>
+          <t>Faivre</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>101653ba-32a9-48d1-aa1b-342c3a7fbe0a</t>
+          <t>e6b67870-0e7f-496e-beba-93ca63179721</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Gabès</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H93" t="n">
-        <v>8713</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="94">
@@ -3793,34 +3793,34 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Verdier</t>
+          <t>Leclercq</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Noël</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0ae36d14-f036-45bc-84d1-91ab1d5ef552</t>
+          <t>867adb8d-7f1d-4dfd-b67e-1ef02a9e0070</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H94" t="n">
-        <v>6255</v>
+        <v>18346</v>
       </c>
     </row>
     <row r="95">
@@ -3829,34 +3829,34 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dupré</t>
+          <t>Michaud</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Jeanne</t>
+          <t>Monique</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>47ccffeb-cad2-439d-94f9-7e74033dfac2</t>
+          <t>215173ba-2253-4e05-9ccb-461344e659ce</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Homme</t>
+          <t>Femme</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H95" t="n">
-        <v>3420</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="96">
@@ -3865,34 +3865,34 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fischer</t>
+          <t>Pineau</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Stéphane</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7b53ffbd-ac6d-4105-b40c-45ed8f6b6dd7</t>
+          <t>fe393ce7-a021-4155-ab26-3f0118f86e91</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H96" t="n">
-        <v>6226</v>
+        <v>18298</v>
       </c>
     </row>
     <row r="97">
@@ -3901,34 +3901,34 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Poulain</t>
+          <t>Dumas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Emmanuelle</t>
+          <t>Laetitia</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3d582d19-3093-48f1-9a32-608101717d5f</t>
+          <t>ad55327c-eeb3-4c38-acb9-971541ed60d9</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nabeul</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H97" t="n">
-        <v>6320</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="98">
@@ -3937,22 +3937,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Maréchal</t>
+          <t>Huet</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>613fee75-a651-436c-83a7-2e3d7267fb96</t>
+          <t>e0c4de6f-fa50-4b7d-9568-010a09893fc8</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H98" t="n">
-        <v>4427</v>
+        <v>17752</v>
       </c>
     </row>
     <row r="99">
@@ -3973,34 +3973,34 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Gauthier</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Gabrielle</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>85bb2382-c9a8-498f-abf4-ced1ba3200c3</t>
+          <t>9ed7e401-dd7a-4992-8969-9f028f164e76</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Bizerte</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H99" t="n">
-        <v>12257</v>
+        <v>10397</v>
       </c>
     </row>
     <row r="100">
@@ -4009,22 +4009,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Schneider</t>
+          <t>Caron</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>e61d3339-4725-41a9-8c6c-ae8bf143306f</t>
+          <t>b942d267-f4b8-4607-b25a-ee43d8b98ad5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100" t="n">
-        <v>9631</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="101">
@@ -4045,34 +4045,34 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rossi</t>
+          <t>Lefebvre</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Cécile</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>091b2b4c-d0fb-48f4-acb7-b99de79cff14</t>
+          <t>71eb2250-30af-488b-929b-be4b5cd6ab62</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sfax</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Femme</t>
+          <t>Homme</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H101" t="n">
-        <v>16656</v>
+        <v>11268</v>
       </c>
     </row>
   </sheetData>
